--- a/biology/Botanique/Spermacoce/Spermacoce.xlsx
+++ b/biology/Botanique/Spermacoce/Spermacoce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Spermacoce est un genre de plantes dicotylédones de la famille des Rubiaceae, sous-famille des Rubioideae, à répartition pantropicale, qui comprend environ 300 espèces.
-Des extraits de ces plantes, ainsi que les composés qui ont été isolés, possèdent diverses activités biologiques, notamment anti-inflammatoires, antitumorales, antimicrobiennes, larvicides, antioxydantes, gastro-intestinales, anti-ulcéreuses et hépatoprotectrices. Les principaux principes actifs sont  des alcaloïdes et des iridoïdes[3].
+Des extraits de ces plantes, ainsi que les composés qui ont été isolés, possèdent diverses activités biologiques, notamment anti-inflammatoires, antitumorales, antimicrobiennes, larvicides, antioxydantes, gastro-intestinales, anti-ulcéreuses et hépatoprotectrices. Les principaux principes actifs sont  des alcaloïdes et des iridoïdes.
 </t>
         </is>
       </c>
@@ -512,16 +524,18 @@
           <t>Caractéristiques générales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Spermacoce sont des plantes herbacées annuelles ou vivaces ou de petits sous-arbrisseaux, à tiges glabres, pubescentes, hispides ou scabres, très souvent prostrées à érigées, à section quadrangulaire.
-Les feuilles, opposées ou faussement verticillées, sont sessiles ou pétiolées. Le pétiole est souvent soudé à la gaine des stipules, qui est souvent divisée en une ou plusieurs franges filiformes[2].
+Les feuilles, opposées ou faussement verticillées, sont sessiles ou pétiolées. Le pétiole est souvent soudé à la gaine des stipules, qui est souvent divisée en une ou plusieurs franges filiformes.
 Les fleurs sont le plus souvent petites, parfois de taille moyenne, hermaphrodites, non hétérostylées, sessiles. Elles ont généralement groupées en grappes axillaires plus ou moins globuleuses, comptant de très nombreuses fleurs, ou parfois en capitules terminaux, soutenus par 1 à 2 paires de feuilles formant bractées.
 Le calice est composé d'un tube obovoïde, turbiné ou obconique, avec 4 lobes, le plus souvent triangulaires, oblongs ou lancéolés, plus ou moins  persistants, parfois avec des denticules intermédiaires.
 La corolle infundibuliforme (en forme d'entonnoir) ou en forme de plateau, présente un tube parfois très mince, parfois avec un anneau de poils à l'intérieur vers la base, une gorge glabre à poilue et 4 lobes étalés.
 Les étamines, au nombre de 4, sont insérées par leur filament dans le tube de la corolle ou à la gorge. Les anthères, linéaires à oblongues, sont incluses ou majoritairement exsertes.
-L'ovaire biloculaire contient un ovule amphitrope solitaire dans chaque loge, attaché au milieu du septum. Le style, filiforme, est le plus souvent exsert. Le stigmate est  capité ou à 2 lobes courts[2].
-Le fruit est généralement une capsule à 2 valves déhiscente de l'apex vers le bas chez certaines espèces, ou de la base vers le haut mais les valves restant attachées par le limbe du calice chez quelques espèces. Les graines, oblongues, ellipsoïdes ou ovoïdes, ont généralement une couleur brun luisant. La testa est fine et  souvent clairement réticulée, sillonnée ventralement. L'albumen est corné ou charnu[2].
+L'ovaire biloculaire contient un ovule amphitrope solitaire dans chaque loge, attaché au milieu du septum. Le style, filiforme, est le plus souvent exsert. Le stigmate est  capité ou à 2 lobes courts.
+Le fruit est généralement une capsule à 2 valves déhiscente de l'apex vers le bas chez certaines espèces, ou de la base vers le haut mais les valves restant attachées par le limbe du calice chez quelques espèces. Les graines, oblongues, ellipsoïdes ou ovoïdes, ont généralement une couleur brun luisant. La testa est fine et  souvent clairement réticulée, sillonnée ventralement. L'albumen est corné ou charnu.
 </t>
         </is>
       </c>
@@ -550,21 +564,129 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Spermacoce a été décrit par Linné et publié en 1753 dans son Species plantarum (Sp. Pl. 1: 102)[4].
-L'espèce-type est  Spermacoce tenuior (lectotype)[1].
-Traditionnellement, le genre Borreria a été séparé du genre Spermacoce sur la base du type de déhiscence des fruits. Dans le genre Borreria, les deux valves des fruits sont déhiscentes alors que dans le genre  Spermacoce une valve est déhiscente et l'autre indéhiscente (par comparaison, les deux valves sont indéhiscentes dans le genre Diodia). Cependant à la suite de recherches pantropicales sur  ce groupe et de données moléculaires, la majorité des auteurs regroupent désormais toutes ces espèces dans le genre Spermacoce[5].
-Étymologie
-Le nom générique, « Spermacoce », dérive de deux racines de grec ancien, σπέρμα (sperma), la graine, et ακωκη (akoke), la pointe, en référence au fruit (capsule couronnée par les pointes du calice persistant)[6],[7],[8].
-Sélection d'espèces
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Spermacoce a été décrit par Linné et publié en 1753 dans son Species plantarum (Sp. Pl. 1: 102).
+L'espèce-type est  Spermacoce tenuior (lectotype).
+Traditionnellement, le genre Borreria a été séparé du genre Spermacoce sur la base du type de déhiscence des fruits. Dans le genre Borreria, les deux valves des fruits sont déhiscentes alors que dans le genre  Spermacoce une valve est déhiscente et l'autre indéhiscente (par comparaison, les deux valves sont indéhiscentes dans le genre Diodia). Cependant à la suite de recherches pantropicales sur  ce groupe et de données moléculaires, la majorité des auteurs regroupent désormais toutes ces espèces dans le genre Spermacoce.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Spermacoce</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spermacoce</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Spermacoce », dérive de deux racines de grec ancien, σπέρμα (sperma), la graine, et ακωκη (akoke), la pointe, en référence au fruit (capsule couronnée par les pointes du calice persistant).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Spermacoce</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spermacoce</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sélection d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Spermacoce alata Aubl. (1775)
 Spermacoce latifolia Aubl. (1775)
 Spermacoce hexangularis Aubl. (1775)
 Spermacoce prostrata Aubl. (1775)
 Spermacoce verticillata L. (1753)
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (26 février 2022)[9] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Spermacoce</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Spermacoce</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (26 février 2022) :
 Spermacoce adscendens Willd. (1818)
 Spermacoce aequabilis Harwood (2005)
 Spermacoce affinis (DC.) R.M.Salas (2020)
